--- a/biology/Zoologie/Coeloplanidae/Coeloplanidae.xlsx
+++ b/biology/Zoologie/Coeloplanidae/Coeloplanidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Coeloplanidae sont une famille de cténophores de l'ordre des Platyctenida. 
 </t>
@@ -511,10 +523,12 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Coeloplanidae sont des cténophores benthiques pourvus de tentacules pêcheurs. Pour mieux se confondre avec leur support, ils sont de forme très aplatie (ce qui les fait davantage ressembler à des limaces de mer ou à des vers plats). 
-La plupart vivent en association avec d'autres animaux, notamment des échinodermes[2]. 
+La plupart vivent en association avec d'autres animaux, notamment des échinodermes. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (8 septembre 2019)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (8 septembre 2019) :
 genre Coeloplana Kowalevsky, 1880 -- 24 espèces
 genre Vallicula Rankin, 1956 -- 1 espèce</t>
         </is>
